--- a/templates/idc_statistic.xlsx
+++ b/templates/idc_statistic.xlsx
@@ -28,16 +28,14 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -385,20 +383,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C2" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.7109375" defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="18.7109375" defaultRowHeight="24.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" style="1"/>
-    <col min="2" max="16384" width="18.7109375" style="2"/>
+    <col min="1" max="1" width="18.7109375" style="3"/>
+    <col min="2" max="16384" width="18.7109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="4" customFormat="1" ht="30" customHeight="1">
-      <c r="A1" s="3"/>
+    <row r="1" spans="1:1" s="2" customFormat="1" ht="30" customHeight="1">
+      <c r="A1" s="1"/>
     </row>
-    <row r="2" spans="1:1" ht="27.95" customHeight="1"/>
+    <row r="2" spans="1:1" ht="30" customHeight="1"/>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <phoneticPr fontId="1" type="noConversion"/>
